--- a/dados/master/esdi_origem_estudantes_master.xlsx
+++ b/dados/master/esdi_origem_estudantes_master.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="936">
   <si>
     <t>bairro</t>
   </si>
@@ -535,15 +535,6 @@
   </si>
   <si>
     <t>-43.4465162</t>
-  </si>
-  <si>
-    <t>Jardim Guanabara (Ilha do Governador)</t>
-  </si>
-  <si>
-    <t>-22.8128362</t>
-  </si>
-  <si>
-    <t>-43.2007792</t>
   </si>
   <si>
     <t>Juscelino</t>
@@ -5288,8 +5279,8 @@
       <c r="H42" s="7">
         <v>0.0</v>
       </c>
-      <c r="I42" s="7">
-        <v>0.0</v>
+      <c r="I42" s="10">
+        <v>1.0</v>
       </c>
       <c r="J42" s="7">
         <v>1.0</v>
@@ -5712,16 +5703,16 @@
         <v>170</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="C52" s="7" t="s">
         <v>172</v>
       </c>
+      <c r="D52" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="E52" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F52" s="7">
         <v>0.0</v>
@@ -5733,7 +5724,7 @@
         <v>0.0</v>
       </c>
       <c r="I52" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J52" s="7">
         <v>0.0</v>
@@ -5742,7 +5733,7 @@
         <v>0.0</v>
       </c>
       <c r="L52" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M52" s="7">
         <v>0.0</v>
@@ -5750,27 +5741,25 @@
       <c r="N52" s="7">
         <v>0.0</v>
       </c>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C53" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F53" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G53" s="7">
         <v>0.0</v>
@@ -5779,30 +5768,32 @@
         <v>0.0</v>
       </c>
       <c r="I53" s="7">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J53" s="7">
         <v>0.0</v>
       </c>
       <c r="K53" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L53" s="7">
         <v>0.0</v>
-      </c>
-      <c r="L53" s="7">
-        <v>1.0</v>
       </c>
       <c r="M53" s="7">
         <v>0.0</v>
       </c>
       <c r="N53" s="7">
-        <v>0.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>178</v>
@@ -5811,10 +5802,10 @@
         <v>179</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="F54" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G54" s="7">
         <v>0.0</v>
@@ -5823,7 +5814,7 @@
         <v>0.0</v>
       </c>
       <c r="I54" s="7">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J54" s="7">
         <v>0.0</v>
@@ -5838,7 +5829,7 @@
         <v>0.0</v>
       </c>
       <c r="N54" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
@@ -5848,46 +5839,44 @@
         <v>180</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="7" t="s">
         <v>182</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F55" s="7">
         <v>0.0</v>
       </c>
       <c r="G55" s="7">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H55" s="7">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I55" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J55" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K55" s="7">
         <v>1.0</v>
       </c>
       <c r="L55" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M55" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N55" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
+        <v>3.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
@@ -5896,42 +5885,44 @@
       <c r="B56" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>185</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>56</v>
       </c>
       <c r="F56" s="7">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G56" s="7">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H56" s="7">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I56" s="7">
         <v>1.0</v>
       </c>
       <c r="J56" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="K56" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="L56" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="M56" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="N56" s="7">
         <v>1.0</v>
       </c>
-      <c r="K56" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L56" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="M56" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="N56" s="7">
-        <v>3.0</v>
-      </c>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
@@ -5940,26 +5931,26 @@
       <c r="B57" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="7" t="s">
         <v>188</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>56</v>
       </c>
       <c r="F57" s="7">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G57" s="7">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="H57" s="7">
         <v>1.0</v>
       </c>
       <c r="I57" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J57" s="7">
         <v>0.0</v>
@@ -5971,13 +5962,11 @@
         <v>0.0</v>
       </c>
       <c r="M57" s="7">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="N57" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
@@ -5993,13 +5982,13 @@
         <v>191</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="F58" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G58" s="7">
         <v>0.0</v>
-      </c>
-      <c r="G58" s="7">
-        <v>1.0</v>
       </c>
       <c r="H58" s="7">
         <v>1.0</v>
@@ -6011,16 +6000,16 @@
         <v>0.0</v>
       </c>
       <c r="K58" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L58" s="7">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M58" s="7">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="N58" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
@@ -6040,13 +6029,13 @@
         <v>19</v>
       </c>
       <c r="F59" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G59" s="7">
         <v>0.0</v>
       </c>
       <c r="H59" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I59" s="7">
         <v>0.0</v>
@@ -6055,16 +6044,16 @@
         <v>0.0</v>
       </c>
       <c r="K59" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L59" s="7">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M59" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="N59" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -6074,10 +6063,10 @@
       <c r="B60" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>197</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -6090,7 +6079,7 @@
         <v>0.0</v>
       </c>
       <c r="H60" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I60" s="7">
         <v>0.0</v>
@@ -6099,33 +6088,35 @@
         <v>0.0</v>
       </c>
       <c r="K60" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L60" s="7">
         <v>0.0</v>
       </c>
       <c r="M60" s="7">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="N60" s="7">
-        <v>0.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
         <v>198</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F61" s="7">
         <v>0.0</v>
@@ -6134,7 +6125,7 @@
         <v>0.0</v>
       </c>
       <c r="H61" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I61" s="7">
         <v>0.0</v>
@@ -6143,7 +6134,7 @@
         <v>0.0</v>
       </c>
       <c r="K61" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L61" s="7">
         <v>0.0</v>
@@ -6159,19 +6150,19 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="7" t="s">
         <v>204</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F62" s="7">
         <v>0.0</v>
@@ -6195,20 +6186,18 @@
         <v>0.0</v>
       </c>
       <c r="M62" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="N62" s="7">
         <v>0.0</v>
       </c>
-      <c r="N62" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
         <v>205</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>206</v>
@@ -6217,7 +6206,7 @@
         <v>207</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F63" s="7">
         <v>0.0</v>
@@ -6232,7 +6221,7 @@
         <v>0.0</v>
       </c>
       <c r="J63" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K63" s="7">
         <v>0.0</v>
@@ -6261,7 +6250,7 @@
         <v>210</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F64" s="7">
         <v>0.0</v>
@@ -6276,16 +6265,16 @@
         <v>0.0</v>
       </c>
       <c r="J64" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="K64" s="7">
         <v>1.0</v>
       </c>
-      <c r="K64" s="7">
+      <c r="L64" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="M64" s="7">
         <v>0.0</v>
-      </c>
-      <c r="L64" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="M64" s="7">
-        <v>1.0</v>
       </c>
       <c r="N64" s="7">
         <v>0.0</v>
@@ -6305,7 +6294,7 @@
         <v>213</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F65" s="7">
         <v>0.0</v>
@@ -6326,13 +6315,13 @@
         <v>1.0</v>
       </c>
       <c r="L65" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M65" s="7">
         <v>0.0</v>
       </c>
       <c r="N65" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
@@ -6349,7 +6338,7 @@
         <v>216</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F66" s="7">
         <v>0.0</v>
@@ -6367,7 +6356,7 @@
         <v>0.0</v>
       </c>
       <c r="K66" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L66" s="7">
         <v>0.0</v>
@@ -6393,10 +6382,10 @@
         <v>219</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F67" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G67" s="7">
         <v>0.0</v>
@@ -6420,7 +6409,7 @@
         <v>0.0</v>
       </c>
       <c r="N67" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
@@ -6440,7 +6429,7 @@
         <v>19</v>
       </c>
       <c r="F68" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G68" s="7">
         <v>0.0</v>
@@ -6461,7 +6450,7 @@
         <v>0.0</v>
       </c>
       <c r="M68" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N68" s="7">
         <v>0.0</v>
@@ -6496,16 +6485,16 @@
         <v>0.0</v>
       </c>
       <c r="J69" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K69" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L69" s="7">
         <v>0.0</v>
       </c>
       <c r="M69" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N69" s="7">
         <v>0.0</v>
@@ -6516,7 +6505,7 @@
         <v>226</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>227</v>
@@ -6525,7 +6514,7 @@
         <v>228</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F70" s="7">
         <v>0.0</v>
@@ -6543,7 +6532,7 @@
         <v>1.0</v>
       </c>
       <c r="K70" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L70" s="7">
         <v>0.0</v>
@@ -6560,7 +6549,7 @@
         <v>229</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>230</v>
@@ -6569,7 +6558,7 @@
         <v>231</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F71" s="7">
         <v>0.0</v>
@@ -6584,10 +6573,10 @@
         <v>0.0</v>
       </c>
       <c r="J71" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="K71" s="7">
         <v>1.0</v>
-      </c>
-      <c r="K71" s="7">
-        <v>0.0</v>
       </c>
       <c r="L71" s="7">
         <v>0.0</v>
@@ -6613,7 +6602,7 @@
         <v>234</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F72" s="7">
         <v>0.0</v>
@@ -6634,13 +6623,13 @@
         <v>1.0</v>
       </c>
       <c r="L72" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M72" s="7">
         <v>0.0</v>
       </c>
       <c r="N72" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="73">
@@ -6678,10 +6667,10 @@
         <v>1.0</v>
       </c>
       <c r="L73" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="M73" s="7">
         <v>1.0</v>
-      </c>
-      <c r="M73" s="7">
-        <v>0.0</v>
       </c>
       <c r="N73" s="7">
         <v>1.0</v>
@@ -6694,17 +6683,17 @@
       <c r="B74" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>240</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F74" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G74" s="7">
         <v>0.0</v>
@@ -6719,17 +6708,19 @@
         <v>0.0</v>
       </c>
       <c r="K74" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L74" s="7">
         <v>0.0</v>
       </c>
       <c r="M74" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N74" s="7">
-        <v>1.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
@@ -6738,10 +6729,10 @@
       <c r="B75" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="7" t="s">
         <v>243</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -6763,26 +6754,24 @@
         <v>0.0</v>
       </c>
       <c r="K75" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L75" s="7">
         <v>0.0</v>
       </c>
       <c r="M75" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N75" s="7">
         <v>0.0</v>
       </c>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
         <v>244</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>245</v>
@@ -6791,10 +6780,10 @@
         <v>246</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F76" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G76" s="7">
         <v>0.0</v>
@@ -6806,16 +6795,16 @@
         <v>0.0</v>
       </c>
       <c r="J76" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="K76" s="7">
         <v>0.0</v>
-      </c>
-      <c r="K76" s="7">
-        <v>1.0</v>
       </c>
       <c r="L76" s="7">
         <v>0.0</v>
       </c>
       <c r="M76" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N76" s="7">
         <v>0.0</v>
@@ -6826,7 +6815,7 @@
         <v>247</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>248</v>
@@ -6835,7 +6824,7 @@
         <v>249</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F77" s="7">
         <v>0.0</v>
@@ -6850,7 +6839,7 @@
         <v>0.0</v>
       </c>
       <c r="J77" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K77" s="7">
         <v>0.0</v>
@@ -6859,10 +6848,10 @@
         <v>0.0</v>
       </c>
       <c r="M77" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N77" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="78">
@@ -6870,16 +6859,16 @@
         <v>250</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F78" s="7">
         <v>0.0</v>
@@ -6900,21 +6889,21 @@
         <v>0.0</v>
       </c>
       <c r="L78" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="M78" s="7">
         <v>0.0</v>
       </c>
-      <c r="M78" s="7">
-        <v>1.0</v>
-      </c>
       <c r="N78" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>254</v>
+        <v>111</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>255</v>
@@ -6923,7 +6912,7 @@
         <v>256</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F79" s="7">
         <v>0.0</v>
@@ -6935,7 +6924,7 @@
         <v>0.0</v>
       </c>
       <c r="I79" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J79" s="7">
         <v>0.0</v>
@@ -6944,7 +6933,7 @@
         <v>0.0</v>
       </c>
       <c r="L79" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M79" s="7">
         <v>0.0</v>
@@ -6958,7 +6947,7 @@
         <v>257</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>258</v>
@@ -6967,7 +6956,7 @@
         <v>259</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F80" s="7">
         <v>0.0</v>
@@ -6988,13 +6977,13 @@
         <v>0.0</v>
       </c>
       <c r="L80" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M80" s="7">
         <v>0.0</v>
       </c>
       <c r="N80" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
@@ -7011,7 +7000,7 @@
         <v>262</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="F81" s="7">
         <v>0.0</v>
@@ -7023,13 +7012,13 @@
         <v>0.0</v>
       </c>
       <c r="I81" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J81" s="7">
         <v>0.0</v>
       </c>
       <c r="K81" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L81" s="7">
         <v>1.0</v>
@@ -7038,7 +7027,7 @@
         <v>0.0</v>
       </c>
       <c r="N81" s="7">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="82">
@@ -7046,16 +7035,16 @@
         <v>263</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>265</v>
       </c>
+      <c r="D82" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="E82" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F82" s="7">
         <v>0.0</v>
@@ -7076,26 +7065,28 @@
         <v>1.0</v>
       </c>
       <c r="L82" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M82" s="7">
         <v>0.0</v>
       </c>
       <c r="N82" s="7">
-        <v>2.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E83" s="7" t="s">
@@ -7111,13 +7102,13 @@
         <v>0.0</v>
       </c>
       <c r="I83" s="7">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J83" s="7">
         <v>0.0</v>
       </c>
       <c r="K83" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L83" s="7">
         <v>0.0</v>
@@ -7128,15 +7119,13 @@
       <c r="N83" s="7">
         <v>0.0</v>
       </c>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
         <v>270</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>271</v>
@@ -7145,7 +7134,7 @@
         <v>272</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F84" s="7">
         <v>0.0</v>
@@ -7157,7 +7146,7 @@
         <v>0.0</v>
       </c>
       <c r="I84" s="7">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J84" s="7">
         <v>0.0</v>
@@ -7166,7 +7155,7 @@
         <v>0.0</v>
       </c>
       <c r="L84" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M84" s="7">
         <v>0.0</v>
@@ -7216,7 +7205,7 @@
         <v>0.0</v>
       </c>
       <c r="N85" s="7">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="86">
@@ -7233,34 +7222,34 @@
         <v>278</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F86" s="7">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G86" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H86" s="7">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I86" s="7">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="J86" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K86" s="7">
         <v>0.0</v>
       </c>
       <c r="L86" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M86" s="7">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="N86" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="87">
@@ -7270,58 +7259,60 @@
       <c r="B87" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="6" t="s">
         <v>281</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F87" s="7">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G87" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H87" s="7">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="I87" s="7">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="J87" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K87" s="7">
         <v>0.0</v>
       </c>
       <c r="L87" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="M87" s="7">
         <v>0.0</v>
       </c>
-      <c r="M87" s="7">
-        <v>3.0</v>
-      </c>
       <c r="N87" s="7">
-        <v>3.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="7" t="s">
         <v>284</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F88" s="7">
         <v>0.0</v>
@@ -7342,23 +7333,21 @@
         <v>0.0</v>
       </c>
       <c r="L88" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="M88" s="7">
         <v>1.0</v>
-      </c>
-      <c r="M88" s="7">
-        <v>0.0</v>
       </c>
       <c r="N88" s="7">
         <v>0.0</v>
       </c>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>286</v>
@@ -7367,7 +7356,7 @@
         <v>287</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F89" s="7">
         <v>0.0</v>
@@ -7379,7 +7368,7 @@
         <v>0.0</v>
       </c>
       <c r="I89" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J89" s="7">
         <v>0.0</v>
@@ -7391,7 +7380,7 @@
         <v>0.0</v>
       </c>
       <c r="M89" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N89" s="7">
         <v>0.0</v>
@@ -7411,7 +7400,7 @@
         <v>290</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="F90" s="7">
         <v>0.0</v>
@@ -7423,7 +7412,7 @@
         <v>0.0</v>
       </c>
       <c r="I90" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J90" s="7">
         <v>0.0</v>
@@ -7438,7 +7427,7 @@
         <v>0.0</v>
       </c>
       <c r="N90" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="91">
@@ -7446,16 +7435,16 @@
         <v>291</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="6" t="s">
         <v>293</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F91" s="7">
         <v>0.0</v>
@@ -7484,28 +7473,30 @@
       <c r="N91" s="7">
         <v>1.0</v>
       </c>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
         <v>294</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C92" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="7" t="s">
         <v>296</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F92" s="7">
         <v>0.0</v>
       </c>
       <c r="G92" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H92" s="7">
         <v>0.0</v>
@@ -7517,118 +7508,75 @@
         <v>0.0</v>
       </c>
       <c r="K92" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L92" s="7">
         <v>0.0</v>
       </c>
       <c r="M92" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="N92" s="7">
         <v>0.0</v>
       </c>
-      <c r="N92" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
     </row>
     <row r="93">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F93" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G93" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="H93" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I93" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J93" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="K93" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L93" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="M93" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="N93" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12">
-        <f t="shared" ref="F94:N94" si="1">SUM(F2:F93)</f>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12">
+        <f t="shared" ref="F93:N93" si="1">SUM(F2:F92)</f>
         <v>30</v>
       </c>
-      <c r="G94" s="12">
+      <c r="G93" s="12">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H94" s="12">
+      <c r="H93" s="12">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I94" s="12">
+      <c r="I93" s="12">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="J94" s="12">
+      <c r="J93" s="12">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K94" s="12">
+      <c r="K93" s="12">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="L94" s="12">
+      <c r="L93" s="12">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="M94" s="12">
+      <c r="M93" s="12">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="N94" s="12">
+      <c r="N93" s="12">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="O94" s="12"/>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="12"/>
-      <c r="R94" s="12"/>
-      <c r="S94" s="12"/>
-      <c r="T94" s="12"/>
-      <c r="U94" s="12"/>
-      <c r="V94" s="12"/>
-      <c r="W94" s="12"/>
-      <c r="X94" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="12"/>
+      <c r="X93" s="12"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="5"/>
     </row>
     <row r="95">
       <c r="A95" s="5"/>
@@ -7692,9 +7640,6 @@
     </row>
     <row r="115">
       <c r="A115" s="5"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -7721,7 +7666,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>0</v>
@@ -7730,15 +7675,15 @@
         <v>1</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>76</v>
@@ -7749,7 +7694,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>93</v>
@@ -7763,10 +7708,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
@@ -7777,7 +7722,7 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>53</v>
@@ -7791,7 +7736,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>53</v>
@@ -7805,10 +7750,10 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
@@ -7819,7 +7764,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>148</v>
@@ -7833,10 +7778,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>16</v>
@@ -7847,7 +7792,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>69</v>
@@ -7861,7 +7806,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>120</v>
@@ -7875,10 +7820,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>16</v>
@@ -7889,10 +7834,10 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -7903,7 +7848,7 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>93</v>
@@ -7917,10 +7862,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>16</v>
@@ -7931,7 +7876,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>167</v>
@@ -7945,10 +7890,10 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -7959,7 +7904,7 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>117</v>
@@ -7973,7 +7918,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>69</v>
@@ -7987,7 +7932,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>132</v>
@@ -8001,7 +7946,7 @@
     </row>
     <row r="21">
       <c r="A21" s="48" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>66</v>
@@ -8015,7 +7960,7 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>157</v>
@@ -8029,7 +7974,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>154</v>
@@ -8043,10 +7988,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>16</v>
@@ -8057,7 +8002,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>10</v>
@@ -8071,7 +8016,7 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>84</v>
@@ -8085,10 +8030,10 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>16</v>
@@ -8099,7 +8044,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>37</v>
@@ -8113,10 +8058,10 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>16</v>
@@ -8127,7 +8072,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>69</v>
@@ -8141,10 +8086,10 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>16</v>
@@ -8155,10 +8100,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>16</v>
@@ -8169,7 +8114,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>40</v>
@@ -8183,13 +8128,13 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D34" s="60">
         <v>2.614705E7</v>
@@ -8197,10 +8142,10 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>16</v>
@@ -8211,7 +8156,7 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>114</v>
@@ -13070,7 +13015,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>0</v>
@@ -13079,18 +13024,18 @@
         <v>1</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D2" s="60">
         <v>2.655336E7</v>
@@ -13098,10 +13043,10 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
@@ -13112,7 +13057,7 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>148</v>
@@ -13126,13 +13071,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D5" s="60">
         <v>2.905603E7</v>
@@ -13140,7 +13085,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -13154,7 +13099,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>53</v>
@@ -13168,7 +13113,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>53</v>
@@ -13182,7 +13127,7 @@
     </row>
     <row r="9">
       <c r="A9" s="61" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>43</v>
@@ -13196,7 +13141,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>40</v>
@@ -13210,7 +13155,7 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>26</v>
@@ -13224,7 +13169,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>120</v>
@@ -13238,7 +13183,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>96</v>
@@ -13252,7 +13197,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>60</v>
@@ -13266,7 +13211,7 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>126</v>
@@ -13280,10 +13225,10 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
@@ -13294,7 +13239,7 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>60</v>
@@ -13308,7 +13253,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>53</v>
@@ -13322,7 +13267,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>69</v>
@@ -13336,7 +13281,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>57</v>
@@ -13350,10 +13295,10 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
@@ -13364,7 +13309,7 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>40</v>
@@ -13378,10 +13323,10 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>16</v>
@@ -13392,10 +13337,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>16</v>
@@ -13406,7 +13351,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>84</v>
@@ -13420,7 +13365,7 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>93</v>
@@ -13434,10 +13379,10 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>16</v>
@@ -13448,7 +13393,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>123</v>
@@ -13462,7 +13407,7 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>84</v>
@@ -13476,7 +13421,7 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>132</v>
@@ -13490,7 +13435,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>63</v>
@@ -13504,10 +13449,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>16</v>
@@ -13518,7 +13463,7 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>160</v>
@@ -13532,7 +13477,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>126</v>
@@ -13546,10 +13491,10 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>16</v>
@@ -13560,10 +13505,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>16</v>
@@ -13574,10 +13519,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>16</v>
@@ -13588,7 +13533,7 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>107</v>
@@ -13602,7 +13547,7 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>50</v>
@@ -13616,7 +13561,7 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>107</v>
@@ -18448,7 +18393,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>0</v>
@@ -18457,15 +18402,15 @@
         <v>1</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>16</v>
@@ -18476,10 +18421,10 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
@@ -18490,7 +18435,7 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>33</v>
@@ -18504,10 +18449,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>16</v>
@@ -18518,7 +18463,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>90</v>
@@ -18532,10 +18477,10 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
@@ -18546,7 +18491,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>132</v>
@@ -18560,7 +18505,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>53</v>
@@ -18574,7 +18519,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>148</v>
@@ -18588,7 +18533,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>107</v>
@@ -18602,7 +18547,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>142</v>
@@ -18616,7 +18561,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>30</v>
@@ -18630,10 +18575,10 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
@@ -18644,10 +18589,10 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>16</v>
@@ -18658,10 +18603,10 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
@@ -18672,10 +18617,10 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -18686,7 +18631,7 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>53</v>
@@ -18700,10 +18645,10 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>16</v>
@@ -18714,7 +18659,7 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>87</v>
@@ -18728,7 +18673,7 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>50</v>
@@ -18742,10 +18687,10 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>16</v>
@@ -18756,7 +18701,7 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>53</v>
@@ -18770,10 +18715,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>16</v>
@@ -18784,10 +18729,10 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>16</v>
@@ -18798,10 +18743,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>11</v>
@@ -18812,10 +18757,10 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>16</v>
@@ -18826,7 +18771,7 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>47</v>
@@ -18840,7 +18785,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>37</v>
@@ -18854,10 +18799,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>16</v>
@@ -18868,10 +18813,10 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>16</v>
@@ -18882,10 +18827,10 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>16</v>
@@ -18896,7 +18841,7 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>84</v>
@@ -18910,7 +18855,7 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>60</v>
@@ -18924,10 +18869,10 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>11</v>
@@ -18938,7 +18883,7 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>84</v>
@@ -18952,7 +18897,7 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>103</v>
@@ -18966,7 +18911,7 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>23</v>
@@ -18980,7 +18925,7 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>110</v>
@@ -18994,7 +18939,7 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>145</v>
@@ -19008,10 +18953,10 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>16</v>
@@ -23840,7 +23785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>0</v>
@@ -23849,15 +23794,15 @@
         <v>1</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>16</v>
@@ -23868,10 +23813,10 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
@@ -23882,7 +23827,7 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>37</v>
@@ -23896,10 +23841,10 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>16</v>
@@ -23910,7 +23855,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>107</v>
@@ -23924,7 +23869,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>84</v>
@@ -23938,7 +23883,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>33</v>
@@ -23952,10 +23897,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>16</v>
@@ -23966,7 +23911,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>126</v>
@@ -23980,13 +23925,13 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D11" s="60">
         <v>2.75231E7</v>
@@ -23994,10 +23939,10 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>16</v>
@@ -24008,7 +23953,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>60</v>
@@ -24022,7 +23967,7 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>96</v>
@@ -24036,10 +23981,10 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>34</v>
@@ -24050,7 +23995,7 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>120</v>
@@ -24064,10 +24009,10 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -24078,10 +24023,10 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>16</v>
@@ -24092,7 +24037,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>99</v>
@@ -24106,10 +24051,10 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>16</v>
@@ -24120,7 +24065,7 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>96</v>
@@ -24134,10 +24079,10 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>16</v>
@@ -24148,7 +24093,7 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>135</v>
@@ -24162,10 +24107,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>16</v>
@@ -24176,10 +24121,10 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>16</v>
@@ -24190,10 +24135,10 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>16</v>
@@ -24204,7 +24149,7 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>84</v>
@@ -24218,10 +24163,10 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>16</v>
@@ -24232,10 +24177,10 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>16</v>
@@ -24246,7 +24191,7 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>37</v>
@@ -24260,10 +24205,10 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>16</v>
@@ -24274,10 +24219,10 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>16</v>
@@ -24288,7 +24233,7 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>37</v>
@@ -24302,10 +24247,10 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>16</v>
@@ -24316,7 +24261,7 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>114</v>
@@ -24330,10 +24275,10 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>16</v>
@@ -24344,10 +24289,10 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>16</v>
@@ -24358,10 +24303,10 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>16</v>
@@ -24372,7 +24317,7 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>107</v>
@@ -24386,10 +24331,10 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>16</v>
@@ -24400,7 +24345,7 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>20</v>
@@ -29233,25 +29178,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="F1" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="17" t="s">
         <v>304</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>307</v>
       </c>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
@@ -29275,7 +29220,7 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>53</v>
@@ -29290,15 +29235,15 @@
       <c r="E2" s="22"/>
       <c r="F2" s="23"/>
       <c r="G2" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>16</v>
@@ -29312,10 +29257,10 @@
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>16</v>
@@ -29329,7 +29274,7 @@
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>90</v>
@@ -29346,7 +29291,7 @@
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>107</v>
@@ -29363,7 +29308,7 @@
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>84</v>
@@ -29380,7 +29325,7 @@
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>84</v>
@@ -29395,15 +29340,15 @@
       <c r="E8" s="22"/>
       <c r="F8" s="23"/>
       <c r="G8" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>16</v>
@@ -29417,7 +29362,7 @@
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>84</v>
@@ -29434,10 +29379,10 @@
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>16</v>
@@ -29451,10 +29396,10 @@
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>16</v>
@@ -29468,7 +29413,7 @@
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>84</v>
@@ -29485,7 +29430,7 @@
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>148</v>
@@ -29502,7 +29447,7 @@
     </row>
     <row r="15">
       <c r="A15" s="19" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>84</v>
@@ -29519,7 +29464,7 @@
     </row>
     <row r="16">
       <c r="A16" s="19" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>84</v>
@@ -29536,7 +29481,7 @@
     </row>
     <row r="17">
       <c r="A17" s="19" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>84</v>
@@ -29553,10 +29498,10 @@
     </row>
     <row r="18">
       <c r="A18" s="19" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>16</v>
@@ -29570,10 +29515,10 @@
     </row>
     <row r="19">
       <c r="A19" s="19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>16</v>
@@ -29587,10 +29532,10 @@
     </row>
     <row r="20">
       <c r="A20" s="19" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>16</v>
@@ -29604,7 +29549,7 @@
     </row>
     <row r="21">
       <c r="A21" s="19" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>53</v>
@@ -29621,7 +29566,7 @@
     </row>
     <row r="22">
       <c r="A22" s="19" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>84</v>
@@ -29638,7 +29583,7 @@
     </row>
     <row r="23">
       <c r="A23" s="19" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>148</v>
@@ -29655,13 +29600,13 @@
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D24" s="26" t="str">
         <f t="shared" si="1"/>
@@ -29669,10 +29614,10 @@
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="27" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
@@ -29696,7 +29641,7 @@
     </row>
     <row r="25">
       <c r="A25" s="19" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>160</v>
@@ -29713,7 +29658,7 @@
     </row>
     <row r="26">
       <c r="A26" s="19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>160</v>
@@ -29730,7 +29675,7 @@
     </row>
     <row r="27">
       <c r="A27" s="19" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>53</v>
@@ -29745,15 +29690,15 @@
       <c r="E27" s="22"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>16</v>
@@ -29767,7 +29712,7 @@
     </row>
     <row r="29">
       <c r="A29" s="19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>84</v>
@@ -29784,7 +29729,7 @@
     </row>
     <row r="30">
       <c r="A30" s="19" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>120</v>
@@ -29801,7 +29746,7 @@
     </row>
     <row r="31">
       <c r="A31" s="19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>84</v>
@@ -29818,10 +29763,10 @@
     </row>
     <row r="32">
       <c r="A32" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>16</v>
@@ -37600,7 +37545,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -37609,7 +37554,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
@@ -37629,21 +37574,21 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>151</v>
@@ -37652,12 +37597,12 @@
         <v>16</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>107</v>
@@ -37666,26 +37611,26 @@
         <v>16</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>84</v>
@@ -37694,12 +37639,12 @@
         <v>16</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>84</v>
@@ -37708,12 +37653,12 @@
         <v>16</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>129</v>
@@ -37722,12 +37667,12 @@
         <v>16</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>53</v>
@@ -37736,12 +37681,12 @@
         <v>16</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>69</v>
@@ -37750,54 +37695,54 @@
         <v>79</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>87</v>
@@ -37806,12 +37751,12 @@
         <v>16</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>84</v>
@@ -37820,12 +37765,12 @@
         <v>16</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>84</v>
@@ -37834,12 +37779,12 @@
         <v>16</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>126</v>
@@ -37848,12 +37793,12 @@
         <v>16</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>160</v>
@@ -37862,12 +37807,12 @@
         <v>16</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>160</v>
@@ -37876,12 +37821,12 @@
         <v>16</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>53</v>
@@ -37890,26 +37835,26 @@
         <v>16</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>53</v>
@@ -37918,40 +37863,40 @@
         <v>16</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>107</v>
@@ -37960,12 +37905,12 @@
         <v>16</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>148</v>
@@ -37974,12 +37919,12 @@
         <v>16</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>84</v>
@@ -37988,12 +37933,12 @@
         <v>16</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>84</v>
@@ -38002,40 +37947,40 @@
         <v>16</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>107</v>
@@ -38044,7 +37989,7 @@
         <v>16</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32">
@@ -41947,29 +41892,29 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>408</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>409</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>411</v>
       </c>
       <c r="F1" s="36"/>
       <c r="G1" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
@@ -41990,10 +41935,10 @@
     </row>
     <row r="2">
       <c r="A2" s="38" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C2" s="39" t="str">
         <f t="shared" ref="C2:C31" si="1">SUBSTITUTE(B2, "-", "")</f>
@@ -42010,21 +41955,21 @@
         <v>Ver no mapa</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C3" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42047,15 +41992,15 @@
         <v>16</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C4" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42078,15 +42023,15 @@
         <v>16</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="38" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C5" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42103,21 +42048,21 @@
         <v>Ver no mapa</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C6" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42140,15 +42085,15 @@
         <v>16</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="38" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C7" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42171,15 +42116,15 @@
         <v>16</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="38" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C8" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42202,15 +42147,15 @@
         <v>16</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="38" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C9" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42233,15 +42178,15 @@
         <v>16</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="38" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C10" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42264,15 +42209,15 @@
         <v>79</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="38" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C11" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42289,21 +42234,21 @@
         <v>Ver no mapa</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="38" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C12" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42320,21 +42265,21 @@
         <v>Ver no mapa</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C13" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42351,21 +42296,21 @@
         <v>Ver no mapa</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H13" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="38" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C14" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42388,15 +42333,15 @@
         <v>16</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="38" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C15" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42419,15 +42364,15 @@
         <v>16</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="38" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C16" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42450,15 +42395,15 @@
         <v>16</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="38" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C17" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42481,15 +42426,15 @@
         <v>16</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="38" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C18" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42512,15 +42457,15 @@
         <v>16</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="38" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C19" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42543,15 +42488,15 @@
         <v>16</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="38" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C20" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42574,15 +42519,15 @@
         <v>16</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="38" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C21" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42599,21 +42544,21 @@
         <v>Ver no mapa</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="38" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C22" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42630,21 +42575,21 @@
         <v>Ver no mapa</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="38" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C23" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42661,21 +42606,21 @@
         <v>Ver no mapa</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="38" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C24" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42692,21 +42637,21 @@
         <v>Ver no mapa</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="38" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C25" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42729,15 +42674,15 @@
         <v>16</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C26" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42760,15 +42705,15 @@
         <v>16</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="38" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C27" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42791,15 +42736,15 @@
         <v>16</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="38" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C28" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42822,15 +42767,15 @@
         <v>16</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="38" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C29" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42847,21 +42792,21 @@
         <v>Ver no mapa</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H29" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="38" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C30" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42878,21 +42823,21 @@
         <v>Ver no mapa</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H30" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="38" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C31" s="39" t="str">
         <f t="shared" si="1"/>
@@ -42915,7 +42860,7 @@
         <v>16</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32">
@@ -53601,7 +53546,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>0</v>
@@ -53610,7 +53555,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
@@ -53629,7 +53574,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>148</v>
@@ -53638,12 +53583,12 @@
         <v>16</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
@@ -53652,12 +53597,12 @@
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>148</v>
@@ -53666,12 +53611,12 @@
         <v>16</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>107</v>
@@ -53680,12 +53625,12 @@
         <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>84</v>
@@ -53694,26 +53639,26 @@
         <v>16</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>84</v>
@@ -53722,26 +53667,26 @@
         <v>16</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>107</v>
@@ -53750,26 +53695,26 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>148</v>
@@ -53778,12 +53723,12 @@
         <v>16</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>87</v>
@@ -53792,12 +53737,12 @@
         <v>16</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>84</v>
@@ -53806,12 +53751,12 @@
         <v>16</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>84</v>
@@ -53820,54 +53765,54 @@
         <v>16</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>84</v>
@@ -53876,12 +53821,12 @@
         <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>107</v>
@@ -53890,26 +53835,26 @@
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>148</v>
@@ -53918,12 +53863,12 @@
         <v>16</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -53932,12 +53877,12 @@
         <v>16</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>84</v>
@@ -53946,7 +53891,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25">
@@ -53954,7 +53899,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -53965,7 +53910,7 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>107</v>
@@ -53974,12 +53919,12 @@
         <v>16</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>84</v>
@@ -53988,12 +53933,12 @@
         <v>16</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>148</v>
@@ -54002,12 +53947,12 @@
         <v>16</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>107</v>
@@ -54016,12 +53961,12 @@
         <v>16</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>126</v>
@@ -54030,21 +53975,21 @@
         <v>16</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="32">
@@ -54092,7 +54037,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>0</v>
@@ -54101,7 +54046,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
@@ -54121,7 +54066,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>84</v>
@@ -54130,12 +54075,12 @@
         <v>16</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>148</v>
@@ -54144,40 +54089,40 @@
         <v>16</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>53</v>
@@ -54186,40 +54131,40 @@
         <v>16</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>84</v>
@@ -54228,40 +54173,40 @@
         <v>16</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>53</v>
@@ -54270,12 +54215,12 @@
         <v>16</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>84</v>
@@ -54284,12 +54229,12 @@
         <v>16</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>84</v>
@@ -54298,12 +54243,12 @@
         <v>16</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>84</v>
@@ -54312,12 +54257,12 @@
         <v>16</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>107</v>
@@ -54326,12 +54271,12 @@
         <v>16</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>53</v>
@@ -54340,12 +54285,12 @@
         <v>16</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>148</v>
@@ -54354,12 +54299,12 @@
         <v>16</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>84</v>
@@ -54368,26 +54313,26 @@
         <v>16</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>84</v>
@@ -54396,12 +54341,12 @@
         <v>16</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>84</v>
@@ -54410,12 +54355,12 @@
         <v>16</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>84</v>
@@ -54424,12 +54369,12 @@
         <v>16</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>53</v>
@@ -54438,68 +54383,68 @@
         <v>16</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>160</v>
@@ -54508,12 +54453,12 @@
         <v>16</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>126</v>
@@ -54522,21 +54467,21 @@
         <v>16</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32">
@@ -59408,7 +59353,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>0</v>
@@ -59417,7 +59362,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
@@ -59437,7 +59382,7 @@
     </row>
     <row r="2">
       <c r="A2" s="48" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>53</v>
@@ -59446,12 +59391,12 @@
         <v>16</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="48" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>107</v>
@@ -59460,12 +59405,12 @@
         <v>16</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="48" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>107</v>
@@ -59474,82 +59419,82 @@
         <v>16</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="48" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>111</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="48" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="48" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="48" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="48" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>111</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="48" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>84</v>
@@ -59558,12 +59503,12 @@
         <v>16</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="48" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>40</v>
@@ -59572,26 +59517,26 @@
         <v>16</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="48" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="48" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>40</v>
@@ -59600,26 +59545,26 @@
         <v>16</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="48" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="48" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>40</v>
@@ -59628,12 +59573,12 @@
         <v>16</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="48" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>148</v>
@@ -59642,40 +59587,40 @@
         <v>16</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="48" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="48" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="48" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>160</v>
@@ -59684,54 +59629,54 @@
         <v>16</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="48" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>111</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="48" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="48" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>107</v>
@@ -59740,12 +59685,12 @@
         <v>16</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="48" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>53</v>
@@ -59754,26 +59699,26 @@
         <v>16</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="48" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="48" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>53</v>
@@ -59782,26 +59727,26 @@
         <v>16</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="48" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="48" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>154</v>
@@ -59810,12 +59755,12 @@
         <v>111</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="48" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>160</v>
@@ -59824,12 +59769,12 @@
         <v>16</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="48" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>142</v>
@@ -59838,54 +59783,54 @@
         <v>111</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="48" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="49" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="48" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="48" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>40</v>
@@ -59894,26 +59839,26 @@
         <v>16</v>
       </c>
       <c r="D34" s="49" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="48" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="49" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="48" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>120</v>
@@ -59922,7 +59867,7 @@
         <v>16</v>
       </c>
       <c r="D36" s="49" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="37">
@@ -64769,16 +64714,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
@@ -64801,7 +64746,7 @@
     </row>
     <row r="2">
       <c r="A2" s="48" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>139</v>
@@ -64810,12 +64755,12 @@
         <v>16</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="48" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>53</v>
@@ -64824,12 +64769,12 @@
         <v>16</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>53</v>
@@ -64838,40 +64783,40 @@
         <v>16</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="48" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="48" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="48" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>110</v>
@@ -64880,12 +64825,12 @@
         <v>111</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="48" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>107</v>
@@ -64894,12 +64839,12 @@
         <v>16</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="48" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>163</v>
@@ -64908,12 +64853,12 @@
         <v>164</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="48" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>129</v>
@@ -64922,54 +64867,54 @@
         <v>16</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="48" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="48" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>107</v>
@@ -64978,12 +64923,12 @@
         <v>16</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="48" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>151</v>
@@ -64992,26 +64937,26 @@
         <v>16</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="48" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="48" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>114</v>
@@ -65020,7 +64965,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18">
@@ -70853,31 +70798,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>408</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="D1" s="44" t="s">
+      <c r="F1" s="52" t="s">
+        <v>693</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>694</v>
+      </c>
+      <c r="H1" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="55" t="s">
         <v>304</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>696</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>697</v>
-      </c>
-      <c r="H1" s="54" t="s">
-        <v>306</v>
-      </c>
-      <c r="I1" s="55" t="s">
-        <v>307</v>
       </c>
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
@@ -70901,10 +70846,10 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C2" s="38" t="s">
         <v>69</v>
@@ -70917,21 +70862,21 @@
         <v>Rio de Janeiro - Centro</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>84</v>
@@ -70944,22 +70889,22 @@
         <v>Rio de Janeiro - Copacabana</v>
       </c>
       <c r="F3" s="56" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G3" s="57"/>
       <c r="I3" s="4" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>11</v>
@@ -70969,19 +70914,19 @@
         <v>São Gonçalo - Jóquei Clube</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G4" s="57"/>
       <c r="I4" s="4" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>69</v>
@@ -70994,24 +70939,24 @@
         <v>Nova Friburgo - Centro</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G5" s="57">
         <v>2013.0</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>16</v>
@@ -71021,44 +70966,44 @@
         <v>Rio de Janeiro - Jardim América</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G6" s="57"/>
       <c r="I6" s="4" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>717</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>718</v>
+      </c>
+      <c r="D7" s="38" t="s">
         <v>719</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>720</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>721</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>722</v>
       </c>
       <c r="E7" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Petropolis - Mosela</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G7" s="57"/>
       <c r="I7" s="4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>93</v>
@@ -71071,23 +71016,23 @@
         <v>Rio de Janeiro - Engenho de Dentro</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G8" s="57"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>16</v>
@@ -71097,21 +71042,21 @@
         <v>Rio de Janeiro - Laranjeiras</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G9" s="57" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>53</v>
@@ -71124,22 +71069,22 @@
         <v>Rio de Janeiro - Botafogo</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G10" s="57"/>
       <c r="I10" s="4" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>16</v>
@@ -71149,19 +71094,19 @@
         <v>Rio de Janeiro - Maracanã</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G11" s="57"/>
       <c r="I11" s="4" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>57</v>
@@ -71174,22 +71119,22 @@
         <v>Rio de Janeiro - Cachambi</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G12" s="57"/>
       <c r="I12" s="4" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>16</v>
@@ -71199,50 +71144,50 @@
         <v>Rio de Janeiro - Maracanã</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G13" s="57"/>
       <c r="I13" s="4" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E14" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Barra Mansa - Centro</v>
       </c>
       <c r="F14" s="56" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G14" s="57">
         <v>2013.0</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="I14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="19" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>16</v>
@@ -71252,32 +71197,32 @@
         <v>Rio de Janeiro - Tijuca</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G15" s="57"/>
       <c r="I15" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>747</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>748</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>749</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>750</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>752</v>
       </c>
       <c r="E16" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Duque de Caxias - Jardim Primavera</v>
       </c>
       <c r="F16" s="56" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G16" s="57">
         <v>2014.0</v>
@@ -71286,13 +71231,13 @@
     </row>
     <row r="17">
       <c r="A17" s="19" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>111</v>
@@ -71302,24 +71247,24 @@
         <v>Niterói - Pendotiba</v>
       </c>
       <c r="F17" s="56" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G17" s="57">
         <v>2014.0</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="19" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>16</v>
@@ -71329,19 +71274,19 @@
         <v>Rio de Janeiro - Tijuca</v>
       </c>
       <c r="F18" s="56" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G18" s="57"/>
       <c r="I18" s="4" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="19" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>84</v>
@@ -71354,22 +71299,22 @@
         <v>Rio de Janeiro - Copacabana</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G19" s="57"/>
       <c r="I19" s="4" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="19" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D20" s="38" t="s">
         <v>16</v>
@@ -71379,22 +71324,22 @@
         <v>Rio de Janeiro - Todos os Santos</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G20" s="57"/>
       <c r="I20" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="19" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>16</v>
@@ -71404,19 +71349,19 @@
         <v>Rio de Janeiro - Méier</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G21" s="57"/>
       <c r="I21" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="19" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C22" s="38" t="s">
         <v>57</v>
@@ -71429,20 +71374,20 @@
         <v>Rio de Janeiro - Cachambi</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G22" s="57"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23">
       <c r="A23" s="19" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>16</v>
@@ -71452,45 +71397,45 @@
         <v>Rio de Janeiro - Rio Comprido</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G23" s="57"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>772</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>773</v>
+      </c>
+      <c r="D24" s="38" t="s">
         <v>774</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>775</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>776</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>777</v>
       </c>
       <c r="E24" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Duque de Caixas - Jardim Olavo Bilac</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G24" s="57"/>
       <c r="I24" s="4" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="19" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D25" s="38" t="s">
         <v>16</v>
@@ -71500,17 +71445,17 @@
         <v>Rio de Janeiro - Freguesia</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G25" s="57"/>
       <c r="I25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="19" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C26" s="38" t="s">
         <v>84</v>
@@ -71523,17 +71468,17 @@
         <v>Rio de Janeiro - Copacabana</v>
       </c>
       <c r="F26" s="56" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G26" s="57"/>
       <c r="I26" s="4"/>
     </row>
     <row r="27">
       <c r="A27" s="19" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C27" s="38" t="s">
         <v>107</v>
@@ -71546,17 +71491,17 @@
         <v>Rio de Janeiro - Flamengo</v>
       </c>
       <c r="F27" s="56" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G27" s="57"/>
       <c r="I27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="19" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C28" s="38" t="s">
         <v>120</v>
@@ -71569,22 +71514,22 @@
         <v>Rio de Janeiro - Gávea</v>
       </c>
       <c r="F28" s="56" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G28" s="57"/>
       <c r="I28" s="4" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="19" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D29" s="38" t="s">
         <v>16</v>
@@ -71594,22 +71539,22 @@
         <v>Rio de Janeiro - Vila Isabel</v>
       </c>
       <c r="F29" s="56" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G29" s="57"/>
       <c r="I29" s="4" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="19" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>16</v>
@@ -71619,7 +71564,7 @@
         <v>Rio de Janeiro - Tijuca</v>
       </c>
       <c r="F30" s="56" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G30" s="57">
         <v>2013.0</v>
@@ -71628,10 +71573,10 @@
     </row>
     <row r="31">
       <c r="A31" s="19" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C31" s="38" t="s">
         <v>129</v>
@@ -71644,11 +71589,11 @@
         <v>Rio de Janeiro - Humaitá</v>
       </c>
       <c r="F31" s="56" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G31" s="57"/>
       <c r="I31" s="4" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="32">
